--- a/Lib/converter/yfy/yfy_tool/yfy协议表.xlsx
+++ b/Lib/converter/yfy/yfy_tool/yfy协议表.xlsx
@@ -1,22 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>byte_start</t>
+  </si>
+  <si>
+    <t>byte_end</t>
+  </si>
+  <si>
+    <t>bit_start</t>
+  </si>
+  <si>
+    <t>bit_end</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>data_name</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>volt</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>curr</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -626,9 +698,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -941,14 +1016,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5454545454545" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.0909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6363636363636" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -964,7 +1139,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -981,7 +1156,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
